--- a/biology/Zoologie/Conus_vezoi/Conus_vezoi.xlsx
+++ b/biology/Zoologie/Conus_vezoi/Conus_vezoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus vezoi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’argument date (valeur mars 2018) n’existe pas dans le modèle appelé
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique est présente au large de Madagascar.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus vezoi a été décrite pour la première fois en 2000 par les malacologistes Werner Korn, Hans-Jörg Niederhöfer et Manfred Blöcher[1].
-Synonymes
-Conus (Darioconus) vezoi (Korn, Niederhöfer &amp; Blöcher, 2000) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus vezoi a été décrite pour la première fois en 2000 par les malacologistes Werner Korn, Hans-Jörg Niederhöfer et Manfred Blöcher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_vezoi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_vezoi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Darioconus) vezoi (Korn, Niederhöfer &amp; Blöcher, 2000) · appellation alternative
 Conus pennaceus pseudoecho (Bozzetti, 2013) · non accepté
 Conus pennaceus vezoi Korn, Niederhöfer &amp; Blöcher, 2000 · non accepté
 Darioconus pennaceus pseudoecho Bozzetti, 2013 · non accepté
